--- a/pheno_data.xlsx
+++ b/pheno_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\dz33\github\RNASeq-DGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RNASeqDGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,42 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>MET_H_C1</t>
-  </si>
-  <si>
-    <t>MET_H_C2</t>
-  </si>
-  <si>
-    <t>MET_H_C3</t>
-  </si>
-  <si>
-    <t>MET_H_C4</t>
-  </si>
-  <si>
-    <t>MET_H_C5</t>
-  </si>
-  <si>
-    <t>MET_L_C1</t>
-  </si>
-  <si>
-    <t>MET_L_C2</t>
-  </si>
-  <si>
-    <t>MET_L_C3</t>
-  </si>
-  <si>
-    <t>MET_L_C4</t>
-  </si>
-  <si>
-    <t>MET_L_C5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Samples</t>
   </si>
   <si>
-    <t>Dose</t>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>sample2</t>
+  </si>
+  <si>
+    <t>sample3</t>
+  </si>
+  <si>
+    <t>sample4</t>
+  </si>
+  <si>
+    <t>sample5</t>
+  </si>
+  <si>
+    <t>sample6</t>
+  </si>
+  <si>
+    <t>sample7</t>
+  </si>
+  <si>
+    <t>sample8</t>
+  </si>
+  <si>
+    <t>sample9</t>
+  </si>
+  <si>
+    <t>sample10</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Condition</t>
   </si>
 </sst>
 </file>
@@ -391,97 +397,100 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
